--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/24_Çorum_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/24_Çorum_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C8151B-A554-45E3-8E2B-CD728D2124FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5903A3F-60D8-4E7F-9BD9-0FC6F02B8DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="656" xr2:uid="{EB68EFC1-6096-4BDE-BB3B-3D2D501E685E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="656" xr2:uid="{A3983932-6B7E-4537-B937-D2870D6D7578}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -927,13 +927,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A69BB466-2953-4BAC-9490-7C4316A19B12}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8CE17363-A1C0-446A-9AFD-BFCA1B5A5574}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{684B8D37-A7D7-462E-BE3F-8CF0B3CFA9E7}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{EE0FF7C8-28A0-4823-A11B-F91BCE85C3A8}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{A1B4C7A3-E059-4F42-B626-E57546D81600}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{8B5E83CD-5FFC-4B9B-9737-47997DDEBF1F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{E8774A3E-A7D9-4020-80A8-4ECF0F407FCB}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{91AD0531-5935-46B8-8A41-E36281E872BA}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{B8356BC5-8115-48E4-AC32-BB02EC5E3C06}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{17AF7554-A725-46E2-82C2-62EBAA96ECBD}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{B7C03946-40D3-4B63-B732-2019DADA8386}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{B0BB015A-6E01-4581-94DA-41AF1ABE0C39}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{FA618F98-539F-4A3B-ABFD-0CF96DAA7730}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{E6FCF902-DE06-469C-A32E-96FACC0A3AD8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1303,7 +1303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6195DF1-6454-4E99-BBC0-6413CBDB9B6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A48EC4-A61A-4F44-82F9-FDDA000592D1}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2561,7 +2561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2504A554-E595-4A26-8E6D-BB8134BB302B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1649144-BCB4-491B-AE89-5C8439574AA8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3778,7 +3778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E1C2A5-649C-4297-963B-83F0EB876980}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E121A4BD-07A2-4794-A61A-1873D11EAD92}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4995,7 +4995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4790171-ADC3-474C-A99C-2AC63877405E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03E357B-3B7A-4502-A30A-401D22A2B4FD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6204,7 +6204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FE1AEA-1F01-4FFA-B537-ED3536F4CF44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DCD9CA-2265-4A45-A79B-D4B88885797B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7461,7 +7461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D0E17B-D819-48E4-9A2E-57E43FB64AE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EED994-21BE-48D9-A9A5-A16F546BD1F6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8718,7 +8718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADA44FF-D94B-449A-B129-AD295FB95BF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068C49CE-2B8C-4E63-815B-5FA13123DC2D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9979,7 +9979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF0A241-6845-4522-A99C-67715D4E2867}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC471095-5D1C-4818-8450-B4452694CDA2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11236,7 +11236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7C6397-E309-418B-B8F6-34CBE1D627E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD3BDF7-2093-4760-9FA2-11707E25124F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12493,7 +12493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF25D7-F45B-4141-BCC0-6CC1A9A8EADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881B9AB7-0A68-4B78-AEA2-71B024D005D5}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13738,7 +13738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201787D1-F7E4-4B51-98D4-DDE6C4451CDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723CCA3B-8E48-4460-9C36-80640869E0E7}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14983,7 +14983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C590A-BADF-4BD0-991B-57ABD2B6F14D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0898CA33-665D-4771-B8EE-2EA896DF6BD5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
